--- a/Empty Template.xlsx
+++ b/Empty Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasschiele/PycharmProjects/GrowOrBreakPlanBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4056A94-2A43-BB40-995F-5E5A4E4E8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54569C0F-9B38-4D46-A01E-128BEB5E8E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="167">
   <si>
     <t>Exercise Type</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>Progression</t>
-  </si>
-  <si>
-    <t>Juggernaut Progression</t>
   </si>
   <si>
     <t>60% / 67.5% / 75% / 60% / 65% / 72.5% / 80% / 60% / 70% / 77.5% / 80% / 60% / 75% / 82.5% / 90% / 60%</t>
@@ -805,7 +802,7 @@
   </sheetPr>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -831,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -2511,7 +2508,7 @@
         <v>81</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -2529,7 +2526,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
@@ -2813,18 +2810,18 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2837,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2853,73 +2850,41 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2941,7 +2906,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
